--- a/SQL/Creation BDD/Departement/Departement.xlsx
+++ b/SQL/Creation BDD/Departement/Departement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="131">
   <si>
     <t>Région</t>
   </si>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,7 +763,7 @@
     <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="109.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="80.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -788,9 +788,7 @@
       <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G1" t="s">
-        <v>126</v>
-      </c>
+      <c r="G1" s="1"/>
       <c r="M1" t="str">
         <f>"INSERT INTO `region`(`idRegion`, `nomRegion`) VALUES (NULL,"</f>
         <v>INSERT INTO `region`(`idRegion`, `nomRegion`) VALUES (NULL,</v>
@@ -820,10 +818,7 @@
         <f>$E$1&amp;""""&amp;B2&amp;""","&amp;D2&amp;");"</f>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Ain",1);</v>
       </c>
-      <c r="G2" s="1">
-        <f>IF(ISNA(VLOOKUP(C2,N:O,2,0)),"NULL",VLOOKUP(C2,N:O,2,0))</f>
-        <v>1</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="M2" t="str">
         <f>M$1&amp;""""&amp;N2&amp;""");"</f>
         <v>INSERT INTO `region`(`idRegion`, `nomRegion`) VALUES (NULL,"Auvergne-Rhône-Alpes");</v>
@@ -853,10 +848,7 @@
         <f t="shared" ref="E3:E66" si="1">$E$1&amp;""""&amp;B3&amp;""","&amp;D3&amp;");"</f>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Aisne",7);</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(F3,A:B,2,0)),"",VLOOKUP(F3,A:B,2,0))</f>
-        <v/>
-      </c>
+      <c r="G3" s="1"/>
       <c r="M3" t="str">
         <f t="shared" ref="M3:M15" si="2">M$1&amp;""""&amp;N3&amp;""");"</f>
         <v>INSERT INTO `region`(`idRegion`, `nomRegion`) VALUES (NULL,"Bourgogne-Franche-Comté");</v>
@@ -886,10 +878,6 @@
         <f t="shared" si="1"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Allier",1);</v>
       </c>
-      <c r="G4" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(F4,A:B,2,0)),"",VLOOKUP(F4,A:B,2,0))</f>
-        <v/>
-      </c>
       <c r="M4" t="str">
         <f t="shared" si="2"/>
         <v>INSERT INTO `region`(`idRegion`, `nomRegion`) VALUES (NULL,"Bretagne");</v>
@@ -920,7 +908,7 @@
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Alpes-de-Haute-Provence",13);</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(F5,A:B,2,0)),"",VLOOKUP(F5,A:B,2,0))</f>
+        <f t="shared" ref="G3:G9" si="3">IF(ISNA(VLOOKUP(F5,A:B,2,0)),"",VLOOKUP(F5,A:B,2,0))</f>
         <v/>
       </c>
       <c r="M5" t="str">
@@ -953,7 +941,7 @@
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Hautes-Alpes",13);</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(F6,A:B,2,0)),"",VLOOKUP(F6,A:B,2,0))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M6" t="str">
@@ -986,7 +974,7 @@
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Alpes-Maritimes",13);</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(F7,A:B,2,0)),"",VLOOKUP(F7,A:B,2,0))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M7" t="str">
@@ -1019,7 +1007,7 @@
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Ardèche",1);</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(F8,A:B,2,0)),"",VLOOKUP(F8,A:B,2,0))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M8" t="str">
@@ -1052,7 +1040,7 @@
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Ardennes",6);</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IF(ISNA(VLOOKUP(F9,A:B,2,0)),"",VLOOKUP(F9,A:B,2,0))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M9" t="str">
@@ -2220,11 +2208,11 @@
         <v>11</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:D110" si="3">IF(ISNA(VLOOKUP($C67,N:O,2,0)),"NULL",VLOOKUP($C67,N:O,2,0))</f>
+        <f t="shared" ref="D67:D110" si="4">IF(ISNA(VLOOKUP($C67,N:O,2,0)),"NULL",VLOOKUP($C67,N:O,2,0))</f>
         <v>11</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E110" si="4">$E$1&amp;""""&amp;B67&amp;""","&amp;D67&amp;");"</f>
+        <f t="shared" ref="E67:E110" si="5">$E$1&amp;""""&amp;B67&amp;""","&amp;D67&amp;");"</f>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Hautes-Pyrénées",11);</v>
       </c>
     </row>
@@ -2239,11 +2227,11 @@
         <v>11</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Pyrénées-Orientales",11);</v>
       </c>
     </row>
@@ -2258,11 +2246,11 @@
         <v>6</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Bas-Rhin",6);</v>
       </c>
     </row>
@@ -2277,11 +2265,11 @@
         <v>6</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Haut-Rhin",6);</v>
       </c>
     </row>
@@ -2296,11 +2284,11 @@
         <v>1</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Rhône",1);</v>
       </c>
     </row>
@@ -2315,11 +2303,11 @@
         <v>2</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Haute-Saône",2);</v>
       </c>
     </row>
@@ -2334,11 +2322,11 @@
         <v>2</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Saône-et-Loire",2);</v>
       </c>
     </row>
@@ -2353,11 +2341,11 @@
         <v>12</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Sarthe",12);</v>
       </c>
     </row>
@@ -2372,11 +2360,11 @@
         <v>1</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Savoie",1);</v>
       </c>
     </row>
@@ -2391,11 +2379,11 @@
         <v>1</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Haute-Savoie",1);</v>
       </c>
     </row>
@@ -2410,11 +2398,11 @@
         <v>8</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Paris",8);</v>
       </c>
     </row>
@@ -2429,11 +2417,11 @@
         <v>9</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Seine-Maritime",9);</v>
       </c>
     </row>
@@ -2448,11 +2436,11 @@
         <v>8</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Seine-et-Marne",8);</v>
       </c>
     </row>
@@ -2467,11 +2455,11 @@
         <v>8</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Yvelines",8);</v>
       </c>
     </row>
@@ -2486,11 +2474,11 @@
         <v>10</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Deux-Sèvres",10);</v>
       </c>
     </row>
@@ -2505,11 +2493,11 @@
         <v>7</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Somme",7);</v>
       </c>
     </row>
@@ -2524,11 +2512,11 @@
         <v>11</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Tarn",11);</v>
       </c>
     </row>
@@ -2543,11 +2531,11 @@
         <v>11</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Tarn-et-Garonne",11);</v>
       </c>
     </row>
@@ -2562,11 +2550,11 @@
         <v>13</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Var",13);</v>
       </c>
     </row>
@@ -2581,11 +2569,11 @@
         <v>13</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Vaucluse",13);</v>
       </c>
     </row>
@@ -2600,11 +2588,11 @@
         <v>12</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Vendée",12);</v>
       </c>
     </row>
@@ -2619,11 +2607,11 @@
         <v>10</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Vienne",10);</v>
       </c>
     </row>
@@ -2638,11 +2626,11 @@
         <v>10</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Haute-Vienne",10);</v>
       </c>
     </row>
@@ -2657,11 +2645,11 @@
         <v>6</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Vosges",6);</v>
       </c>
     </row>
@@ -2676,11 +2664,11 @@
         <v>2</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Yonne",2);</v>
       </c>
     </row>
@@ -2695,11 +2683,11 @@
         <v>2</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Territoire de Belfort",2);</v>
       </c>
     </row>
@@ -2714,11 +2702,11 @@
         <v>8</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Essonne",8);</v>
       </c>
     </row>
@@ -2733,11 +2721,11 @@
         <v>8</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Hauts-de-Seine",8);</v>
       </c>
     </row>
@@ -2752,11 +2740,11 @@
         <v>8</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Seine-Saint-Denis",8);</v>
       </c>
     </row>
@@ -2771,11 +2759,11 @@
         <v>8</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Val-de-Marne",8);</v>
       </c>
     </row>
@@ -2790,11 +2778,11 @@
         <v>8</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Val-d'Oise",8);</v>
       </c>
     </row>
@@ -2809,11 +2797,11 @@
         <v>14</v>
       </c>
       <c r="D98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Guadeloupe",14);</v>
       </c>
     </row>
@@ -2828,11 +2816,11 @@
         <v>14</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Martinique",14);</v>
       </c>
     </row>
@@ -2847,11 +2835,11 @@
         <v>14</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Guyane",14);</v>
       </c>
     </row>
@@ -2866,11 +2854,11 @@
         <v>14</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"La Réunion",14);</v>
       </c>
     </row>
@@ -2885,11 +2873,11 @@
         <v>14</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Saint-Pierre-et-Miquelon",14);</v>
       </c>
     </row>
@@ -2901,11 +2889,11 @@
         <v>118</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NULL</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Mayotte",NULL);</v>
       </c>
     </row>
@@ -2920,11 +2908,11 @@
         <v>14</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Saint-Barthélemy	",14);</v>
       </c>
     </row>
@@ -2939,11 +2927,11 @@
         <v>14</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Saint-Martin	",14);</v>
       </c>
     </row>
@@ -2958,11 +2946,11 @@
         <v>14</v>
       </c>
       <c r="D106" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Terres australes et antarctiques françaises",14);</v>
       </c>
     </row>
@@ -2977,11 +2965,11 @@
         <v>14</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Wallis-et-Futuna",14);</v>
       </c>
     </row>
@@ -2996,11 +2984,11 @@
         <v>14</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Polynésie française",14);</v>
       </c>
     </row>
@@ -3015,11 +3003,11 @@
         <v>14</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Nouvelle-Calédonie",14);</v>
       </c>
     </row>
@@ -3034,11 +3022,11 @@
         <v>14</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>INSERT INTO `departement`(`idDepartement`, `nomDepartement`, `idRegion`) VALUES (NULL,"Clipperton",14);</v>
       </c>
     </row>
